--- a/OpFlix/OpFlix.xlsx
+++ b/OpFlix/OpFlix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\41813664803\Desktop\Arquivos\2s2019-t2-sprint-1-bd\OpFlix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5E52A008-0A32-4223-A205-54FEECC59D89}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C539F8A2-4562-4434-B677-BC71EF6B6684}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9525" xr2:uid="{DC12DABD-C056-4134-AA9C-2C5397B035C0}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
   <si>
     <t>Usuarios</t>
   </si>
@@ -82,6 +82,42 @@
   </si>
   <si>
     <t>TipoUsuario</t>
+  </si>
+  <si>
+    <t>Plataformas</t>
+  </si>
+  <si>
+    <t>IdPlataforma</t>
+  </si>
+  <si>
+    <t>Erik</t>
+  </si>
+  <si>
+    <t>erik@email.com</t>
+  </si>
+  <si>
+    <t>cassiana@email.com</t>
+  </si>
+  <si>
+    <t>helena@email.com</t>
+  </si>
+  <si>
+    <t>Roberto</t>
+  </si>
+  <si>
+    <t>rob@email.com</t>
+  </si>
+  <si>
+    <t>Helena</t>
+  </si>
+  <si>
+    <t>Cassiana</t>
+  </si>
+  <si>
+    <t>Administrador</t>
+  </si>
+  <si>
+    <t>Cliente</t>
   </si>
 </sst>
 </file>
@@ -111,7 +147,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -159,6 +195,17 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -287,7 +334,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -297,8 +344,10 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
@@ -307,53 +356,62 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="8" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="8" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="6" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="6" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="8" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="10" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="9" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="6" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="11">
     <cellStyle name="40% - Ênfase1" xfId="2" builtinId="31"/>
     <cellStyle name="40% - Ênfase2" xfId="4" builtinId="35"/>
     <cellStyle name="40% - Ênfase4" xfId="6" builtinId="43"/>
+    <cellStyle name="40% - Ênfase5" xfId="10" builtinId="47"/>
     <cellStyle name="40% - Ênfase6" xfId="8" builtinId="51"/>
     <cellStyle name="Ênfase1" xfId="1" builtinId="29"/>
     <cellStyle name="Ênfase2" xfId="3" builtinId="33"/>
     <cellStyle name="Ênfase4" xfId="5" builtinId="41"/>
+    <cellStyle name="Ênfase5" xfId="9" builtinId="45"/>
     <cellStyle name="Ênfase6" xfId="7" builtinId="49"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -667,10 +725,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A94C213-2A12-4176-ACC7-DBB1728D715B}">
-  <dimension ref="B1:I18"/>
+  <dimension ref="B1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -679,7 +737,7 @@
     <col min="5" max="5" width="11.42578125" customWidth="1"/>
     <col min="6" max="6" width="13.42578125" customWidth="1"/>
     <col min="7" max="7" width="11.85546875" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" customWidth="1"/>
+    <col min="8" max="9" width="13.140625" customWidth="1"/>
     <col min="10" max="10" width="12.85546875" customWidth="1"/>
     <col min="11" max="11" width="10.7109375" customWidth="1"/>
     <col min="13" max="13" width="13.140625" customWidth="1"/>
@@ -689,17 +747,17 @@
   <sheetData>
     <row r="1" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="20"/>
-      <c r="H2" s="16" t="s">
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="25"/>
+      <c r="H2" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="17"/>
+      <c r="I2" s="20"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
@@ -708,175 +766,263 @@
       <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="12" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
+      <c r="B4" s="26">
+        <v>1</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="2">
+        <v>123456</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1</v>
+      </c>
+      <c r="H4" s="10">
+        <v>1</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
+      <c r="B5" s="2">
+        <v>2</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="2">
+        <v>123456</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+      <c r="H5" s="10">
+        <v>2</v>
+      </c>
+      <c r="I5" s="28" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+      <c r="B6" s="2">
+        <v>3</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="2">
+        <v>123456</v>
+      </c>
+      <c r="F6" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="2">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="2">
+        <v>3110</v>
+      </c>
+      <c r="F7" s="2">
+        <v>2</v>
+      </c>
+    </row>
     <row r="8" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="8" t="s">
+      <c r="H8" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="20"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H9" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+    </row>
+    <row r="11" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+    </row>
+    <row r="12" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="E8" s="8" t="s">
+      <c r="C12" s="22"/>
+      <c r="E12" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="9"/>
-      <c r="H8" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="I8" s="17"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="6" t="s">
+      <c r="F12" s="22"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C13" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="23" t="s">
+      <c r="E13" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F13" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="14" t="s">
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+    </row>
+    <row r="17" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="18"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-    </row>
-    <row r="13" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="13"/>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="4" t="s">
+      <c r="I19" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="15"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H15" s="10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B18:I18"/>
     <mergeCell ref="H8:I8"/>
     <mergeCell ref="H2:I2"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="E12:F12"/>
     <mergeCell ref="B2:F2"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/OpFlix/OpFlix.xlsx
+++ b/OpFlix/OpFlix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\41813664803\Desktop\Arquivos\2s2019-t2-sprint-1-bd\OpFlix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C539F8A2-4562-4434-B677-BC71EF6B6684}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDC58D3B-96B9-4D8C-A13E-0687756B0757}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9525" xr2:uid="{DC12DABD-C056-4134-AA9C-2C5397B035C0}"/>
   </bookViews>
@@ -365,42 +365,42 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="8" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="10" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="9" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="6" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="9" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="40% - Ênfase1" xfId="2" builtinId="31"/>
@@ -725,10 +725,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A94C213-2A12-4176-ACC7-DBB1728D715B}">
-  <dimension ref="B1:I26"/>
+  <dimension ref="B1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -747,17 +747,17 @@
   <sheetData>
     <row r="1" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="25"/>
-      <c r="H2" s="19" t="s">
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="28"/>
+      <c r="H2" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="20"/>
+      <c r="I2" s="23"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
@@ -783,10 +783,10 @@
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="26">
+      <c r="B4" s="15">
         <v>1</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="16" t="s">
         <v>21</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -801,7 +801,7 @@
       <c r="H4" s="10">
         <v>1</v>
       </c>
-      <c r="I4" s="28" t="s">
+      <c r="I4" s="17" t="s">
         <v>29</v>
       </c>
     </row>
@@ -809,7 +809,7 @@
       <c r="B5" s="2">
         <v>2</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="16" t="s">
         <v>28</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -824,7 +824,7 @@
       <c r="H5" s="10">
         <v>2</v>
       </c>
-      <c r="I5" s="28" t="s">
+      <c r="I5" s="17" t="s">
         <v>30</v>
       </c>
     </row>
@@ -832,7 +832,7 @@
       <c r="B6" s="2">
         <v>3</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="16" t="s">
         <v>27</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -863,12 +863,12 @@
       </c>
     </row>
     <row r="8" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H8" s="19" t="s">
+      <c r="H8" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="I8" s="20"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I8" s="23"/>
+    </row>
+    <row r="9" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H9" s="9" t="s">
         <v>15</v>
       </c>
@@ -876,70 +876,82 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="25"/>
+      <c r="E10" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="25"/>
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
     </row>
-    <row r="11" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
     </row>
-    <row r="12" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="22"/>
-      <c r="E12" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="22"/>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
+      <c r="H14" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="I14" s="18"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
+      <c r="H15" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" s="14" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
     </row>
     <row r="17" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="18" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="18"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="21"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
@@ -997,32 +1009,14 @@
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C24" s="15"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-    </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="H14:I14"/>
     <mergeCell ref="B18:I18"/>
     <mergeCell ref="H8:I8"/>
     <mergeCell ref="H2:I2"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E10:F10"/>
     <mergeCell ref="B2:F2"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
